--- a/Recherche/appendix/ILV.xlsx
+++ b/Recherche/appendix/ILV.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DA64F9C0-457E-4E57-850D-262F697508DD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AE85FD25-2261-4436-BBC1-107E9A41E2EC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,19 +68,20 @@
     <t>Woche 4</t>
   </si>
   <si>
-    <t xml:space="preserve">- Master aufgeräumt
-- Files die direkt in Master geladen wurden in branch Verbesserung gewechselt
-- ILV Tabelle
-- Kleine Aenderungen vorgenommen
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">- Github eingerichtet
 - LaTex eingerichtet + File mit wichtigen Befehlen
 - Layout/Design
 - Einleitung
 - Meine Recherche
 - Korrekturen
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Master aufgeräumt
+- Files die direkt in Master geladen wurden in branch Verbesserung gewechselt
+- ILV Tabelle
+- Kleine Aenderungen vorgenommen
+- Latex Literatur
 </t>
   </si>
 </sst>
@@ -444,20 +445,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -503,6 +492,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -806,87 +807,87 @@
       </c>
     </row>
     <row r="5" spans="2:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="7" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="7" t="s">
+      <c r="D7" s="22"/>
+      <c r="E7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="24"/>
     </row>
     <row r="8" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="19" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="116.5" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="12">
         <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="12"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="17"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="12"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="17"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -923,119 +924,119 @@
       </c>
     </row>
     <row r="5" spans="2:10" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="7" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="7" t="s">
+      <c r="D7" s="22"/>
+      <c r="E7" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="7" t="s">
+      <c r="F7" s="24"/>
+      <c r="G7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="7" t="s">
+      <c r="H7" s="24"/>
+      <c r="I7" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="8"/>
+      <c r="J7" s="24"/>
     </row>
     <row r="8" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="23" t="s">
+      <c r="J8" s="19" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="16"/>
+      <c r="C9" s="12"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="10"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="6"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="12"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="17"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="12"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="17"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="12"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="8"/>
     </row>
     <row r="13" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Recherche/appendix/ILV.xlsx
+++ b/Recherche/appendix/ILV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramiro18/Library/Group Containers/UBF8T346G9.ms/MerpTempItems/Schule/Studium/Pro1/Recherche/appendix/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frank/Pro1/Recherche/appendix/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231F41EE-8D7E-8A40-9E9D-698276C3B6EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2DBBA8-FD2B-A140-8921-601E03AAA9F1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4320" yWindow="3300" windowWidth="16380" windowHeight="8200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recherche-Dokument" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
   <si>
     <t>ILV</t>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>Protokolle1&amp;2 erstellt + geschrieben                  Recherche</t>
-  </si>
-  <si>
-    <t>3,5</t>
   </si>
   <si>
     <t xml:space="preserve">Protokoll 2 angepasst                                                  zusätzliche Änderung                                                        Vorlage Einladung                                                                         </t>
@@ -505,7 +502,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -589,7 +586,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -887,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C9" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -964,11 +961,11 @@
       <c r="D10" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="14">
+        <v>5</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>20</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="48" x14ac:dyDescent="0.2">
